--- a/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
+++ b/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\OneDrive\Desktop\DA\Code\pv_optimizer_contracting\src\pv_optimizer_contracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55E8D5-E11C-4795-B423-9513F88CD88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD34FE6-2C37-4695-A09A-61B1B70C21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
   </bookViews>
@@ -3510,7 +3510,7 @@
   <dimension ref="A1:S745"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3695,7 +3695,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>1002</v>
       </c>
       <c r="F4" t="s">
@@ -8220,7 +8220,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
+++ b/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\OneDrive\Desktop\DA\Code\pv_optimizer_contracting\src\pv_optimizer_contracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD34FE6-2C37-4695-A09A-61B1B70C21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC912A60-151B-4200-A65F-A56BA09F07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="10" r:id="rId1"/>
@@ -8220,7 +8220,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
+++ b/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\OneDrive\Desktop\DA\Code\pv_optimizer_contracting\src\pv_optimizer_contracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC912A60-151B-4200-A65F-A56BA09F07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75F55F-5274-4FD8-B583-38B23720224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="10" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>Number of Cars</t>
   </si>
   <si>
-    <t>Number of households</t>
-  </si>
-  <si>
     <t>Max Powerflow Charging Station</t>
   </si>
   <si>
@@ -3077,6 +3074,9 @@
   </si>
   <si>
     <t>Insulation Options</t>
+  </si>
+  <si>
+    <t>Number of residents</t>
   </si>
 </sst>
 </file>
@@ -3509,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F6BA0A-853F-4A52-83CB-1D40EBCA633B}">
   <dimension ref="A1:S745"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3541,7 +3541,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F1" t="s">
         <v>66</v>
@@ -3550,7 +3550,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I1" t="s">
         <v>68</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -3659,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -7562,8 +7562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94768D97-F9DA-444A-B39A-6D1A56841415}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>1003</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -8219,7 +8219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5F999D-3A1A-4B1B-8228-F161AB6A6E9B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8237,7 +8237,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -8265,7 +8265,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C3" s="9">
         <v>30000</v>
@@ -8279,7 +8279,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="9">
         <v>50000</v>
@@ -8293,7 +8293,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="4">
         <v>100000</v>
@@ -8307,7 +8307,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C6" s="9">
         <f>C3*0.1</f>
@@ -8322,7 +8322,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:C8" si="0">C4*0.1</f>
@@ -8337,7 +8337,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -21294,10 +21294,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -21305,10 +21305,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -21316,10 +21316,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -21327,10 +21327,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -21338,10 +21338,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -21349,10 +21349,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -21360,10 +21360,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -21371,10 +21371,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -21382,10 +21382,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -21393,10 +21393,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -21404,10 +21404,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -21415,10 +21415,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -21426,10 +21426,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -21437,10 +21437,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -21448,10 +21448,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -21459,10 +21459,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -21470,10 +21470,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -21481,10 +21481,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -21492,10 +21492,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -21503,10 +21503,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -21514,10 +21514,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -21525,10 +21525,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -21536,10 +21536,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -21547,10 +21547,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -21558,10 +21558,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -21569,10 +21569,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -21580,10 +21580,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -21591,10 +21591,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -21602,10 +21602,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -21613,10 +21613,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -21624,10 +21624,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -21635,10 +21635,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -21646,10 +21646,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -21657,10 +21657,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -21668,10 +21668,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -21679,10 +21679,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -21690,10 +21690,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -21701,10 +21701,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -21712,10 +21712,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -21723,10 +21723,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -21734,10 +21734,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -21745,10 +21745,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -21756,10 +21756,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -21767,10 +21767,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -21778,10 +21778,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -21789,10 +21789,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -21800,10 +21800,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -21811,10 +21811,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -21822,10 +21822,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -21833,10 +21833,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -21844,10 +21844,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -21855,10 +21855,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -21866,10 +21866,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -21877,10 +21877,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -21888,10 +21888,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -21899,10 +21899,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -21910,10 +21910,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -21921,10 +21921,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -21932,10 +21932,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -21943,10 +21943,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -21954,10 +21954,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -21965,10 +21965,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -21976,10 +21976,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -21987,10 +21987,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -21998,10 +21998,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -22009,10 +22009,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -22020,10 +22020,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -22031,10 +22031,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -22042,10 +22042,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -22053,10 +22053,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -22064,10 +22064,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -22075,10 +22075,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -22086,10 +22086,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -22097,10 +22097,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -22108,10 +22108,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -22119,10 +22119,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -22130,10 +22130,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -22141,10 +22141,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -22152,10 +22152,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -22163,10 +22163,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -22174,10 +22174,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -22185,10 +22185,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -22196,10 +22196,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -22207,10 +22207,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -22218,10 +22218,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -22229,10 +22229,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -22240,10 +22240,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -22251,10 +22251,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -22262,10 +22262,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -22273,10 +22273,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -22284,10 +22284,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -22295,10 +22295,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -22306,10 +22306,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -22317,10 +22317,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -22328,10 +22328,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -22339,10 +22339,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -22350,10 +22350,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -22361,10 +22361,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -22372,10 +22372,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -22383,10 +22383,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -22394,10 +22394,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -22405,10 +22405,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -22416,10 +22416,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -22427,10 +22427,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -22438,10 +22438,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -22449,10 +22449,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -22460,10 +22460,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -22471,10 +22471,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -22482,10 +22482,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -22493,10 +22493,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -22504,10 +22504,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -22515,10 +22515,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -22526,10 +22526,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -22537,10 +22537,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -22548,10 +22548,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -22559,10 +22559,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -22570,10 +22570,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -22581,10 +22581,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -22592,10 +22592,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -22603,10 +22603,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -22614,10 +22614,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -22625,10 +22625,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -22636,10 +22636,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -22647,10 +22647,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -22658,10 +22658,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -22669,10 +22669,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -22680,10 +22680,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -22691,10 +22691,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -22702,10 +22702,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -22713,10 +22713,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -22724,10 +22724,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -22735,10 +22735,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -22746,10 +22746,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -22757,10 +22757,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -22768,10 +22768,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -22779,10 +22779,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -22790,10 +22790,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -22801,10 +22801,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -22812,10 +22812,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -22823,10 +22823,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -22834,10 +22834,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -22845,10 +22845,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -22856,10 +22856,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -22867,10 +22867,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -22878,10 +22878,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -22889,10 +22889,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -22900,10 +22900,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -22911,10 +22911,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -22922,10 +22922,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -22933,10 +22933,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -22944,10 +22944,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -22955,10 +22955,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -22966,10 +22966,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -22977,10 +22977,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -22988,10 +22988,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -22999,10 +22999,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -23010,10 +23010,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -23021,10 +23021,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -23032,10 +23032,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -23043,10 +23043,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -23054,10 +23054,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -23065,10 +23065,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -23076,10 +23076,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -23087,10 +23087,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -23098,10 +23098,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -23109,10 +23109,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -23120,10 +23120,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -23131,10 +23131,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -23142,10 +23142,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -23153,10 +23153,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -23164,10 +23164,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -23175,10 +23175,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -23186,10 +23186,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -23197,10 +23197,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -23208,10 +23208,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -23219,10 +23219,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -23230,10 +23230,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -23241,10 +23241,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -23252,10 +23252,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -23263,10 +23263,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -23274,10 +23274,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -23285,10 +23285,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -23296,10 +23296,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -23307,10 +23307,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -23318,10 +23318,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -23329,10 +23329,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -23340,10 +23340,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -23351,10 +23351,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -23362,10 +23362,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -23373,10 +23373,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -23384,10 +23384,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -23395,10 +23395,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -23406,10 +23406,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -23417,10 +23417,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -23428,10 +23428,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -23439,10 +23439,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -23450,10 +23450,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -23461,10 +23461,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -23472,10 +23472,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -23483,10 +23483,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -23494,10 +23494,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -23505,10 +23505,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -23516,10 +23516,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -23527,10 +23527,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -23538,10 +23538,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -23549,10 +23549,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -23560,10 +23560,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -23571,10 +23571,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -23582,10 +23582,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -23593,10 +23593,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -23604,10 +23604,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -23615,10 +23615,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -23626,10 +23626,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -23637,10 +23637,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -23648,10 +23648,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -23659,10 +23659,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -23670,10 +23670,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -23681,10 +23681,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -23692,10 +23692,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -23703,10 +23703,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -23714,10 +23714,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -23725,10 +23725,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -23736,10 +23736,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -23747,10 +23747,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -23758,10 +23758,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -23769,10 +23769,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -23780,10 +23780,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -23791,10 +23791,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -23802,10 +23802,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -23813,10 +23813,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -23824,10 +23824,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -23835,10 +23835,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -23846,10 +23846,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -23857,10 +23857,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -23868,10 +23868,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -23879,10 +23879,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -23890,10 +23890,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -23901,10 +23901,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -23912,10 +23912,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -23923,10 +23923,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -23934,10 +23934,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -23945,10 +23945,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -23956,10 +23956,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -23967,10 +23967,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -23978,10 +23978,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -23989,10 +23989,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -24000,10 +24000,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -24011,10 +24011,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -24022,10 +24022,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -24033,10 +24033,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -24044,10 +24044,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -24055,10 +24055,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -24066,10 +24066,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -24077,10 +24077,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -24088,10 +24088,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -24099,10 +24099,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -24110,10 +24110,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -24121,10 +24121,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -24132,10 +24132,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -24143,10 +24143,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -24154,10 +24154,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -24165,10 +24165,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -24176,10 +24176,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -24187,10 +24187,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -24198,10 +24198,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -24209,10 +24209,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -24220,10 +24220,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -24231,10 +24231,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -24242,10 +24242,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -24253,10 +24253,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -24264,10 +24264,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -24275,10 +24275,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -24286,10 +24286,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -24297,10 +24297,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -24308,10 +24308,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -24319,10 +24319,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -24330,10 +24330,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -24341,10 +24341,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -24352,10 +24352,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -24363,10 +24363,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -24374,10 +24374,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -24385,10 +24385,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -24396,10 +24396,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -24407,10 +24407,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -24418,10 +24418,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -24429,10 +24429,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -24440,10 +24440,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -24451,10 +24451,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -24462,10 +24462,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -24473,10 +24473,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -24484,10 +24484,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -24495,10 +24495,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -24506,10 +24506,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -24517,10 +24517,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -24528,10 +24528,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -24539,10 +24539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -24550,10 +24550,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -24561,10 +24561,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -24572,10 +24572,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -24583,10 +24583,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -24594,10 +24594,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -24605,10 +24605,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -24616,10 +24616,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -24627,10 +24627,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -24638,10 +24638,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -24649,10 +24649,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -24660,10 +24660,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -24671,10 +24671,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -24682,10 +24682,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -24693,10 +24693,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -24704,10 +24704,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -24715,10 +24715,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -24726,10 +24726,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -24737,10 +24737,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -24748,10 +24748,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -24759,10 +24759,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -24770,10 +24770,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -24781,10 +24781,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -24792,10 +24792,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -24803,10 +24803,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -24814,10 +24814,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -24825,10 +24825,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -24836,10 +24836,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -24847,10 +24847,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -24858,10 +24858,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -24869,10 +24869,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
@@ -24880,10 +24880,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
@@ -24891,10 +24891,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
@@ -24902,10 +24902,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -24913,10 +24913,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -24924,10 +24924,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -24935,10 +24935,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -24946,10 +24946,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -24957,10 +24957,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -24968,10 +24968,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -24979,10 +24979,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -24990,10 +24990,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -25001,10 +25001,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -25012,10 +25012,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -25023,10 +25023,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -25034,10 +25034,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -25045,10 +25045,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -25056,10 +25056,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -25067,10 +25067,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -25078,10 +25078,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -25089,10 +25089,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -25100,10 +25100,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -25111,10 +25111,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -25122,10 +25122,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -25133,10 +25133,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -25144,10 +25144,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -25155,10 +25155,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -25166,10 +25166,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
@@ -25177,10 +25177,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -25188,10 +25188,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
@@ -25199,10 +25199,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -25210,10 +25210,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -25221,10 +25221,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -25232,10 +25232,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -25243,10 +25243,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -25254,10 +25254,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -25265,10 +25265,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -25276,10 +25276,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -25287,10 +25287,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -25298,10 +25298,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -25309,10 +25309,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -25320,10 +25320,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -25331,10 +25331,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -25342,10 +25342,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -25353,10 +25353,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -25364,10 +25364,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -25375,10 +25375,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -25386,10 +25386,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -25397,10 +25397,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -25408,10 +25408,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -25419,10 +25419,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -25430,10 +25430,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
@@ -25441,10 +25441,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
@@ -25452,10 +25452,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -25463,10 +25463,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -25474,10 +25474,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -25485,10 +25485,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -25496,10 +25496,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -25507,10 +25507,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -25518,10 +25518,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
@@ -25529,10 +25529,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
@@ -25540,10 +25540,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
@@ -25551,10 +25551,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -25562,10 +25562,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
@@ -25573,10 +25573,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
@@ -25584,10 +25584,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
@@ -25595,10 +25595,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
@@ -25606,10 +25606,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -25617,10 +25617,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -25628,10 +25628,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
@@ -25639,10 +25639,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
@@ -25650,10 +25650,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
@@ -25661,10 +25661,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
@@ -25672,10 +25672,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
@@ -25683,10 +25683,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -25694,10 +25694,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
@@ -25705,10 +25705,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
@@ -25716,10 +25716,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
@@ -25727,10 +25727,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -25738,10 +25738,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
@@ -25749,10 +25749,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
@@ -25760,10 +25760,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
@@ -25771,10 +25771,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
@@ -25782,10 +25782,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
@@ -25793,10 +25793,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
@@ -25804,10 +25804,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
@@ -25815,10 +25815,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -25826,10 +25826,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
@@ -25837,10 +25837,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
@@ -25848,10 +25848,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
@@ -25859,10 +25859,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
@@ -25870,10 +25870,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -25881,10 +25881,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -25892,10 +25892,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
@@ -25903,10 +25903,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
@@ -25914,10 +25914,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
@@ -25925,10 +25925,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -25936,10 +25936,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -25947,10 +25947,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -25958,10 +25958,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -25969,10 +25969,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -25980,10 +25980,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -25991,10 +25991,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -26002,10 +26002,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
@@ -26013,10 +26013,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -26024,10 +26024,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -26035,10 +26035,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -26046,10 +26046,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -26057,10 +26057,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -26068,10 +26068,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -26079,10 +26079,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -26090,10 +26090,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
@@ -26101,10 +26101,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -26112,10 +26112,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
@@ -26123,10 +26123,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
@@ -26134,10 +26134,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -26145,10 +26145,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -26156,10 +26156,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
@@ -26167,10 +26167,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -26178,10 +26178,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -26189,10 +26189,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
@@ -26200,10 +26200,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
@@ -26211,10 +26211,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -26222,10 +26222,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
@@ -26233,10 +26233,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
@@ -26244,10 +26244,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
@@ -26255,10 +26255,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
@@ -26266,10 +26266,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
@@ -26277,10 +26277,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
@@ -26288,10 +26288,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
@@ -26299,10 +26299,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -26310,10 +26310,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
@@ -26321,10 +26321,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -26332,10 +26332,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -26343,10 +26343,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
@@ -26354,10 +26354,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -26365,10 +26365,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
@@ -26376,10 +26376,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
@@ -26387,10 +26387,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
@@ -26398,10 +26398,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
@@ -26409,10 +26409,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -26420,10 +26420,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -26431,10 +26431,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
@@ -26442,10 +26442,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
@@ -26453,10 +26453,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
@@ -26464,10 +26464,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
@@ -26475,10 +26475,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
@@ -26486,10 +26486,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
@@ -26497,10 +26497,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
@@ -26508,10 +26508,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
@@ -26519,10 +26519,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
@@ -26530,10 +26530,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
@@ -26541,10 +26541,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
@@ -26552,10 +26552,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
@@ -26563,10 +26563,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -26574,10 +26574,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
@@ -26585,10 +26585,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
@@ -26596,10 +26596,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -26607,10 +26607,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
@@ -26618,10 +26618,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
@@ -26629,10 +26629,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
@@ -26640,10 +26640,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -26651,10 +26651,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
@@ -26662,10 +26662,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
@@ -26673,10 +26673,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
@@ -26684,10 +26684,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -26695,10 +26695,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
@@ -26706,10 +26706,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
@@ -26717,10 +26717,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
@@ -26728,10 +26728,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
@@ -26739,10 +26739,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -26750,10 +26750,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -26761,10 +26761,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
@@ -26772,10 +26772,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -26783,10 +26783,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -26794,10 +26794,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -26805,10 +26805,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -26816,10 +26816,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -26827,10 +26827,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -26838,10 +26838,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -26849,10 +26849,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
@@ -26860,10 +26860,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
@@ -26871,10 +26871,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
@@ -26882,10 +26882,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
@@ -26893,10 +26893,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
@@ -26904,10 +26904,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -26915,10 +26915,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
@@ -26926,10 +26926,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -26937,10 +26937,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
@@ -26948,10 +26948,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
@@ -26959,10 +26959,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
@@ -26970,10 +26970,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
@@ -26981,10 +26981,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -26992,10 +26992,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -27003,10 +27003,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -27014,10 +27014,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -27025,10 +27025,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -27036,10 +27036,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -27047,10 +27047,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
@@ -27058,10 +27058,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -27069,10 +27069,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -27080,10 +27080,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
@@ -27091,10 +27091,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -27102,10 +27102,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -27113,10 +27113,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -27124,10 +27124,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
@@ -27135,10 +27135,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
@@ -27146,10 +27146,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
@@ -27157,10 +27157,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -27168,10 +27168,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -27179,10 +27179,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
@@ -27190,10 +27190,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
@@ -27201,10 +27201,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -27212,10 +27212,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -27223,10 +27223,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -27234,10 +27234,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -27245,10 +27245,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -27256,10 +27256,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -27267,10 +27267,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -27278,10 +27278,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -27289,10 +27289,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -27300,10 +27300,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -27311,10 +27311,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -27322,10 +27322,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -27333,10 +27333,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -27344,10 +27344,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -27355,10 +27355,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -27366,10 +27366,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -27377,10 +27377,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -27388,10 +27388,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -27399,10 +27399,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -27410,10 +27410,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -27421,10 +27421,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -27432,10 +27432,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -27443,10 +27443,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -27454,10 +27454,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -27465,10 +27465,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -27476,10 +27476,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -27487,10 +27487,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C565" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -27498,10 +27498,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -27509,10 +27509,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C567" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -27520,10 +27520,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -27531,10 +27531,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -27542,10 +27542,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -27553,10 +27553,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -27564,10 +27564,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -27575,10 +27575,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -27586,10 +27586,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -27597,10 +27597,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -27608,10 +27608,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -27619,10 +27619,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -27630,10 +27630,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -27641,10 +27641,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -27652,10 +27652,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -27663,10 +27663,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -27674,10 +27674,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -27685,10 +27685,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -27696,10 +27696,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
@@ -27707,10 +27707,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -27718,10 +27718,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
@@ -27729,10 +27729,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C587" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
@@ -27740,10 +27740,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
@@ -27751,10 +27751,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C589" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
@@ -27762,10 +27762,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -27773,10 +27773,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C591" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
@@ -27784,10 +27784,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
@@ -27795,10 +27795,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C593" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -27806,10 +27806,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
@@ -27817,10 +27817,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C595" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
@@ -27828,10 +27828,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -27839,10 +27839,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C597" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
@@ -27850,10 +27850,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -27861,10 +27861,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C599" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -27872,10 +27872,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
@@ -27883,10 +27883,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C601" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.35">
@@ -27894,10 +27894,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.35">
@@ -27905,10 +27905,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C603" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.35">
@@ -27916,10 +27916,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.35">
@@ -27927,10 +27927,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.35">
@@ -27938,10 +27938,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.35">
@@ -27949,10 +27949,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.35">
@@ -27960,10 +27960,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
@@ -27971,10 +27971,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
@@ -27982,10 +27982,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
@@ -27993,10 +27993,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C611" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
@@ -28004,10 +28004,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
@@ -28015,10 +28015,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C613" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
@@ -28026,10 +28026,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
@@ -28037,10 +28037,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
@@ -28048,10 +28048,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
@@ -28059,10 +28059,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
@@ -28070,10 +28070,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
@@ -28081,10 +28081,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C619" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
@@ -28092,10 +28092,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
@@ -28103,10 +28103,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
@@ -28114,10 +28114,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.35">
@@ -28125,10 +28125,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
@@ -28136,10 +28136,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.35">
@@ -28147,10 +28147,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.35">
@@ -28158,10 +28158,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.35">
@@ -28169,10 +28169,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.35">
@@ -28180,10 +28180,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.35">
@@ -28191,10 +28191,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.35">
@@ -28202,10 +28202,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.35">
@@ -28213,10 +28213,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.35">
@@ -28224,10 +28224,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.35">
@@ -28235,10 +28235,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C633" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.35">
@@ -28246,10 +28246,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.35">
@@ -28257,10 +28257,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C635" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.35">
@@ -28268,10 +28268,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.35">
@@ -28279,10 +28279,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
@@ -28290,10 +28290,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
@@ -28301,10 +28301,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.35">
@@ -28312,10 +28312,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
@@ -28323,10 +28323,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
@@ -28334,10 +28334,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
@@ -28345,10 +28345,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C643" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
@@ -28356,10 +28356,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
@@ -28367,10 +28367,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C645" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
@@ -28378,10 +28378,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
@@ -28389,10 +28389,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C647" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
@@ -28400,10 +28400,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
@@ -28411,10 +28411,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C649" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.35">
@@ -28422,10 +28422,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.35">
@@ -28433,10 +28433,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C651" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
@@ -28444,10 +28444,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
@@ -28455,10 +28455,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C653" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
@@ -28466,10 +28466,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.35">
@@ -28477,10 +28477,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C655" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.35">
@@ -28488,10 +28488,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -28499,10 +28499,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C657" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
@@ -28510,10 +28510,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
@@ -28521,10 +28521,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C659" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
@@ -28532,10 +28532,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
@@ -28543,10 +28543,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C661" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
@@ -28554,10 +28554,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
@@ -28565,10 +28565,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C663" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
@@ -28576,10 +28576,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
@@ -28587,10 +28587,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C665" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
@@ -28598,10 +28598,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
@@ -28609,10 +28609,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C667" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
@@ -28620,10 +28620,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
@@ -28631,10 +28631,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C669" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
@@ -28642,10 +28642,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
@@ -28653,10 +28653,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C671" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
@@ -28664,10 +28664,10 @@
         <v>670</v>
       </c>
       <c r="B672" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
@@ -28675,10 +28675,10 @@
         <v>671</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C673" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
@@ -28686,10 +28686,10 @@
         <v>672</v>
       </c>
       <c r="B674" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
@@ -28697,10 +28697,10 @@
         <v>673</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C675" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
@@ -28708,10 +28708,10 @@
         <v>674</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
@@ -28719,10 +28719,10 @@
         <v>675</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C677" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
@@ -28730,10 +28730,10 @@
         <v>676</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
@@ -28741,10 +28741,10 @@
         <v>677</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C679" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
@@ -28752,10 +28752,10 @@
         <v>678</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
@@ -28763,10 +28763,10 @@
         <v>679</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C681" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
@@ -28774,10 +28774,10 @@
         <v>680</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
@@ -28785,10 +28785,10 @@
         <v>681</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C683" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
@@ -28796,10 +28796,10 @@
         <v>682</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
@@ -28807,10 +28807,10 @@
         <v>683</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C685" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
@@ -28818,10 +28818,10 @@
         <v>684</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
@@ -28829,10 +28829,10 @@
         <v>685</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C687" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
@@ -28840,10 +28840,10 @@
         <v>686</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
@@ -28851,10 +28851,10 @@
         <v>687</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C689" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
@@ -28862,10 +28862,10 @@
         <v>688</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
@@ -28873,10 +28873,10 @@
         <v>689</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C691" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
@@ -28884,10 +28884,10 @@
         <v>690</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
@@ -28895,10 +28895,10 @@
         <v>691</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C693" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
@@ -28906,10 +28906,10 @@
         <v>692</v>
       </c>
       <c r="B694" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
@@ -28917,10 +28917,10 @@
         <v>693</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C695" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
@@ -28928,10 +28928,10 @@
         <v>694</v>
       </c>
       <c r="B696" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
@@ -28939,10 +28939,10 @@
         <v>695</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C697" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
@@ -28950,10 +28950,10 @@
         <v>696</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
@@ -28961,10 +28961,10 @@
         <v>697</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C699" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
@@ -28972,10 +28972,10 @@
         <v>698</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
@@ -28983,10 +28983,10 @@
         <v>699</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C701" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -28994,10 +28994,10 @@
         <v>700</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
@@ -29005,10 +29005,10 @@
         <v>701</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C703" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
@@ -29016,10 +29016,10 @@
         <v>702</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
@@ -29027,10 +29027,10 @@
         <v>703</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C705" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
@@ -29038,10 +29038,10 @@
         <v>704</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
@@ -29049,10 +29049,10 @@
         <v>705</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C707" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
@@ -29060,10 +29060,10 @@
         <v>706</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
@@ -29071,10 +29071,10 @@
         <v>707</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C709" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
@@ -29082,10 +29082,10 @@
         <v>708</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
@@ -29093,10 +29093,10 @@
         <v>709</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C711" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
@@ -29104,10 +29104,10 @@
         <v>710</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
@@ -29115,10 +29115,10 @@
         <v>711</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C713" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
@@ -29126,10 +29126,10 @@
         <v>712</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
@@ -29137,10 +29137,10 @@
         <v>713</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C715" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
@@ -29148,10 +29148,10 @@
         <v>714</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
@@ -29159,10 +29159,10 @@
         <v>715</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C717" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
@@ -29170,10 +29170,10 @@
         <v>716</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.35">
@@ -29181,10 +29181,10 @@
         <v>717</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C719" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.35">
@@ -29192,10 +29192,10 @@
         <v>718</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.35">
@@ -29203,10 +29203,10 @@
         <v>719</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.35">
@@ -29214,10 +29214,10 @@
         <v>720</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.35">
@@ -29225,10 +29225,10 @@
         <v>721</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C723" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.35">
@@ -29236,10 +29236,10 @@
         <v>722</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.35">
@@ -29247,10 +29247,10 @@
         <v>723</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C725" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.35">
@@ -29258,10 +29258,10 @@
         <v>724</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.35">
@@ -29269,10 +29269,10 @@
         <v>725</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C727" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.35">
@@ -29280,10 +29280,10 @@
         <v>726</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.35">
@@ -29291,10 +29291,10 @@
         <v>727</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C729" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.35">
@@ -29302,10 +29302,10 @@
         <v>728</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.35">
@@ -29313,10 +29313,10 @@
         <v>729</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C731" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.35">
@@ -29324,10 +29324,10 @@
         <v>730</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.35">
@@ -29335,10 +29335,10 @@
         <v>731</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C733" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.35">
@@ -29346,10 +29346,10 @@
         <v>732</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.35">
@@ -29357,10 +29357,10 @@
         <v>733</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C735" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.35">
@@ -29368,10 +29368,10 @@
         <v>734</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.35">
@@ -29379,10 +29379,10 @@
         <v>735</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C737" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.35">
@@ -29390,10 +29390,10 @@
         <v>736</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.35">
@@ -29401,10 +29401,10 @@
         <v>737</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C739" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.35">
@@ -29412,10 +29412,10 @@
         <v>738</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.35">
@@ -29423,10 +29423,10 @@
         <v>739</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C741" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.35">
@@ -29434,10 +29434,10 @@
         <v>740</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.35">
@@ -29445,10 +29445,10 @@
         <v>741</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C743" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.35">
@@ -29456,10 +29456,10 @@
         <v>742</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.35">
@@ -29467,10 +29467,10 @@
         <v>743</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C745" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
+++ b/src/pv_optimizer_contracting/data_input_one_month_one_household_one_car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\OneDrive\Desktop\DA\Code\pv_optimizer_contracting\src\pv_optimizer_contracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75F55F-5274-4FD8-B583-38B23720224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F493030-64EC-4083-81CF-AA6FCA157D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1006">
   <si>
     <t>PV</t>
   </si>
@@ -3077,6 +3077,12 @@
   </si>
   <si>
     <t>Number of residents</t>
+  </si>
+  <si>
+    <t>Capacity Density PV</t>
+  </si>
+  <si>
+    <t>rho_PV [kWp/m²]</t>
   </si>
 </sst>
 </file>
@@ -7560,10 +7566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94768D97-F9DA-444A-B39A-6D1A56841415}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7637,57 +7643,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>1005</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -7695,32 +7701,32 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C13">
         <v>0.8</v>
@@ -7728,10 +7734,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>0.8</v>
@@ -7739,21 +7745,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1003</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7761,126 +7767,126 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>1003</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.75</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7888,12 +7894,23 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>22</v>
       </c>
     </row>
